--- a/test/geonbojakyeock_test/test_geonbojakyeock_output.xlsx
+++ b/test/geonbojakyeock_test/test_geonbojakyeock_output.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-ocr-extraction\test\geonbojakyeock_test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91116411-6E4B-4EE2-9EDC-660907F76805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,6 +28,24 @@
     <t>파일명</t>
   </si>
   <si>
+    <t>G202312020251380</t>
+  </si>
+  <si>
+    <t>G202311280261970</t>
+  </si>
+  <si>
+    <t>G202312030101652</t>
+  </si>
+  <si>
+    <t>G202311280212622</t>
+  </si>
+  <si>
+    <t>G202312030654231</t>
+  </si>
+  <si>
+    <t>G202312010654593</t>
+  </si>
+  <si>
     <t>1698-9908-9594-7649</t>
   </si>
   <si>
@@ -41,24 +53,6 @@
   </si>
   <si>
     <t>1701-3377-2830-4802</t>
-  </si>
-  <si>
-    <t>g202312020251380</t>
-  </si>
-  <si>
-    <t>g202311280261970</t>
-  </si>
-  <si>
-    <t>g202312030101652</t>
-  </si>
-  <si>
-    <t>g202311280212622</t>
-  </si>
-  <si>
-    <t>g202312030654231</t>
-  </si>
-  <si>
-    <t>g202312010654593</t>
   </si>
   <si>
     <t>2023-11-03</t>
@@ -109,12 +103,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,15 +116,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,25 +163,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,10 +279,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,136 +454,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>